--- a/Inputs/EC_Part_Data.xlsx
+++ b/Inputs/EC_Part_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ET_Learning_Notes\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38782218-7933-43E0-812A-015C4BB6DAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C63277-BFF3-4E79-99AA-8D621856BD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28641" yWindow="0" windowWidth="9743" windowHeight="19562" xr2:uid="{3B697070-C17E-47D6-A520-8CF218866625}"/>
+    <workbookView xWindow="1122" yWindow="1122" windowWidth="25471" windowHeight="12044" xr2:uid="{3B697070-C17E-47D6-A520-8CF218866625}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A083C1-7B15-4000-9006-FAEE52FEBC45}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>

--- a/Inputs/EC_Part_Data.xlsx
+++ b/Inputs/EC_Part_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ET_Learning_Notes\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C63277-BFF3-4E79-99AA-8D621856BD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB67A5E-18BD-4EBA-88F4-3FEFFE7728C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1122" yWindow="1122" windowWidth="25471" windowHeight="12044" xr2:uid="{3B697070-C17E-47D6-A520-8CF218866625}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>TIMESTAMP_START</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Rn</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>TD</t>
   </si>
 </sst>
 </file>
@@ -121,9 +127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A083C1-7B15-4000-9006-FAEE52FEBC45}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -473,9 +480,10 @@
     <col min="10" max="10" width="9.9140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.9140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,8 +526,14 @@
       <c r="N1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>202508260000</v>
       </c>
@@ -562,8 +576,14 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O2" s="2">
+        <v>24.0395</v>
+      </c>
+      <c r="P2" s="2">
+        <v>25.458500000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>202508260030</v>
       </c>
@@ -606,8 +626,14 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O3" s="2">
+        <v>22.073599999999999</v>
+      </c>
+      <c r="P3" s="2">
+        <v>24.546800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>202508260100</v>
       </c>
@@ -650,8 +676,14 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O4" s="2">
+        <v>20.929300000000001</v>
+      </c>
+      <c r="P4" s="2">
+        <v>23.745100000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>202508260130</v>
       </c>
@@ -694,8 +726,14 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O5" s="2">
+        <v>21.567799999999998</v>
+      </c>
+      <c r="P5" s="2">
+        <v>22.752700000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>202508260200</v>
       </c>
@@ -738,8 +776,14 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O6" s="2">
+        <v>22.229800000000001</v>
+      </c>
+      <c r="P6" s="2">
+        <v>23.642499999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>202508260230</v>
       </c>
@@ -782,8 +826,14 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O7" s="2">
+        <v>20.8459</v>
+      </c>
+      <c r="P7" s="2">
+        <v>23.066700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>202508260300</v>
       </c>
@@ -826,8 +876,14 @@
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O8" s="2">
+        <v>21.194400000000002</v>
+      </c>
+      <c r="P8" s="2">
+        <v>22.1069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>202508260330</v>
       </c>
@@ -870,8 +926,14 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O9" s="2">
+        <v>20.728200000000001</v>
+      </c>
+      <c r="P9" s="2">
+        <v>21.3508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>202508260400</v>
       </c>
@@ -914,8 +976,14 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O10" s="2">
+        <v>20.36</v>
+      </c>
+      <c r="P10" s="2">
+        <v>20.841999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>202508260430</v>
       </c>
@@ -958,8 +1026,14 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O11" s="2">
+        <v>21.0227</v>
+      </c>
+      <c r="P11" s="2">
+        <v>21.311599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>202508260500</v>
       </c>
@@ -1002,8 +1076,14 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O12" s="2">
+        <v>20.067699999999999</v>
+      </c>
+      <c r="P12" s="2">
+        <v>20.6995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>202508260530</v>
       </c>
@@ -1046,8 +1126,14 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O13" s="2">
+        <v>19.4663</v>
+      </c>
+      <c r="P13" s="2">
+        <v>20.151399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>202508260600</v>
       </c>
@@ -1090,8 +1176,14 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O14" s="2">
+        <v>20.558</v>
+      </c>
+      <c r="P14" s="2">
+        <v>21.0839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>202508260630</v>
       </c>
@@ -1134,8 +1226,14 @@
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O15" s="2">
+        <v>20.545500000000001</v>
+      </c>
+      <c r="P15" s="2">
+        <v>21.1066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>202508260700</v>
       </c>
@@ -1178,8 +1276,14 @@
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O16" s="2">
+        <v>25.359500000000001</v>
+      </c>
+      <c r="P16" s="2">
+        <v>23.8018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>202508260730</v>
       </c>
@@ -1222,8 +1326,14 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O17" s="2">
+        <v>24.173400000000001</v>
+      </c>
+      <c r="P17" s="2">
+        <v>23.569299999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>202508260800</v>
       </c>
@@ -1266,8 +1376,14 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O18" s="2">
+        <v>30.028099999999998</v>
+      </c>
+      <c r="P18" s="2">
+        <v>24.047000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>202508260830</v>
       </c>
@@ -1310,8 +1426,14 @@
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O19" s="2">
+        <v>22.595199999999998</v>
+      </c>
+      <c r="P19" s="2">
+        <v>24.0778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>202508260900</v>
       </c>
@@ -1354,8 +1476,14 @@
       <c r="N20">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O20" s="2">
+        <v>21.667000000000002</v>
+      </c>
+      <c r="P20" s="2">
+        <v>20.638400000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>202508260930</v>
       </c>
@@ -1398,8 +1526,14 @@
       <c r="N21">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O21" s="2">
+        <v>22.148900000000001</v>
+      </c>
+      <c r="P21" s="2">
+        <v>19.135100000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>202508261000</v>
       </c>
@@ -1442,8 +1576,14 @@
       <c r="N22">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O22" s="2">
+        <v>23.112300000000001</v>
+      </c>
+      <c r="P22" s="2">
+        <v>19.934799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>202508261030</v>
       </c>
@@ -1486,8 +1626,14 @@
       <c r="N23">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O23" s="2">
+        <v>22.700700000000001</v>
+      </c>
+      <c r="P23" s="2">
+        <v>20.043500000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>202508261100</v>
       </c>
@@ -1530,8 +1676,14 @@
       <c r="N24">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O24" s="2">
+        <v>25.087299999999999</v>
+      </c>
+      <c r="P24" s="2">
+        <v>21.790199999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>202508261130</v>
       </c>
@@ -1574,8 +1726,14 @@
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O25" s="2">
+        <v>31.108899999999998</v>
+      </c>
+      <c r="P25" s="2">
+        <v>22.236499999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>202508261200</v>
       </c>
@@ -1618,8 +1776,14 @@
       <c r="N26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O26" s="2">
+        <v>33.445799999999998</v>
+      </c>
+      <c r="P26" s="2">
+        <v>26.796199999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>202508261230</v>
       </c>
@@ -1662,8 +1826,14 @@
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O27" s="2">
+        <v>33.405999999999999</v>
+      </c>
+      <c r="P27" s="2">
+        <v>26.346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>202508261300</v>
       </c>
@@ -1706,8 +1876,14 @@
       <c r="N28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O28" s="2">
+        <v>36.300600000000003</v>
+      </c>
+      <c r="P28" s="2">
+        <v>27.4068</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>202508261330</v>
       </c>
@@ -1750,8 +1926,14 @@
       <c r="N29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O29" s="2">
+        <v>39.323300000000003</v>
+      </c>
+      <c r="P29" s="2">
+        <v>30.0594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>202508261400</v>
       </c>
@@ -1794,8 +1976,14 @@
       <c r="N30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O30" s="2">
+        <v>38.6218</v>
+      </c>
+      <c r="P30" s="2">
+        <v>31.436399999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>202508261430</v>
       </c>
@@ -1838,8 +2026,14 @@
       <c r="N31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O31" s="2">
+        <v>38.623600000000003</v>
+      </c>
+      <c r="P31" s="2">
+        <v>31.227900000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>202508261500</v>
       </c>
@@ -1882,8 +2076,14 @@
       <c r="N32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O32" s="2">
+        <v>38.356499999999997</v>
+      </c>
+      <c r="P32" s="2">
+        <v>32.583100000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>202508261530</v>
       </c>
@@ -1926,8 +2126,14 @@
       <c r="N33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O33" s="2">
+        <v>37.743299999999998</v>
+      </c>
+      <c r="P33" s="2">
+        <v>33.955399999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>202508261600</v>
       </c>
@@ -1970,8 +2176,14 @@
       <c r="N34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O34" s="2">
+        <v>38.8643</v>
+      </c>
+      <c r="P34" s="2">
+        <v>34.838500000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>202508261630</v>
       </c>
@@ -2014,8 +2226,14 @@
       <c r="N35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O35" s="2">
+        <v>38.246899999999997</v>
+      </c>
+      <c r="P35" s="2">
+        <v>35.377699999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>202508261700</v>
       </c>
@@ -2058,8 +2276,14 @@
       <c r="N36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O36" s="2">
+        <v>36.808700000000002</v>
+      </c>
+      <c r="P36" s="2">
+        <v>35.904299999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>202508261730</v>
       </c>
@@ -2102,8 +2326,14 @@
       <c r="N37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O37" s="2">
+        <v>34.015099999999997</v>
+      </c>
+      <c r="P37" s="2">
+        <v>35.539299999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>202508261800</v>
       </c>
@@ -2146,8 +2376,14 @@
       <c r="N38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O38" s="2">
+        <v>32.347099999999998</v>
+      </c>
+      <c r="P38" s="2">
+        <v>34.459499999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>202508261830</v>
       </c>
@@ -2190,8 +2426,14 @@
       <c r="N39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O39" s="2">
+        <v>29.004000000000001</v>
+      </c>
+      <c r="P39" s="2">
+        <v>32.548900000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>202508261900</v>
       </c>
@@ -2234,8 +2476,14 @@
       <c r="N40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O40" s="2">
+        <v>26.336300000000001</v>
+      </c>
+      <c r="P40" s="2">
+        <v>30.316500000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>202508261930</v>
       </c>
@@ -2278,8 +2526,14 @@
       <c r="N41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O41" s="2">
+        <v>24.7316</v>
+      </c>
+      <c r="P41" s="2">
+        <v>28.435300000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>202508262000</v>
       </c>
@@ -2322,8 +2576,14 @@
       <c r="N42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O42" s="2">
+        <v>24.458300000000001</v>
+      </c>
+      <c r="P42" s="2">
+        <v>27.7194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>202508262030</v>
       </c>
@@ -2366,8 +2626,14 @@
       <c r="N43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O43" s="2">
+        <v>23.851900000000001</v>
+      </c>
+      <c r="P43" s="2">
+        <v>27.916699999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>202508262100</v>
       </c>
@@ -2410,8 +2676,14 @@
       <c r="N44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O44" s="2">
+        <v>23.299099999999999</v>
+      </c>
+      <c r="P44" s="2">
+        <v>26.663399999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>202508262130</v>
       </c>
@@ -2454,8 +2726,14 @@
       <c r="N45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O45" s="2">
+        <v>23.2258</v>
+      </c>
+      <c r="P45" s="2">
+        <v>25.889500000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>202508262200</v>
       </c>
@@ -2498,8 +2776,14 @@
       <c r="N46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O46" s="2">
+        <v>22.747800000000002</v>
+      </c>
+      <c r="P46" s="2">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>202508262230</v>
       </c>
@@ -2542,8 +2826,14 @@
       <c r="N47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O47" s="2">
+        <v>21.3019</v>
+      </c>
+      <c r="P47" s="2">
+        <v>24.534400000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>202508262300</v>
       </c>
@@ -2586,8 +2876,14 @@
       <c r="N48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O48" s="2">
+        <v>21.0929</v>
+      </c>
+      <c r="P48" s="2">
+        <v>23.916799999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>202508262330</v>
       </c>
@@ -2629,6 +2925,12 @@
       </c>
       <c r="N49">
         <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>19.989000000000001</v>
+      </c>
+      <c r="P49" s="2">
+        <v>23.4529</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/EC_Part_Data.xlsx
+++ b/Inputs/EC_Part_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ET_Learning_Notes\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB67A5E-18BD-4EBA-88F4-3FEFFE7728C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F35D34-FC74-49D7-9F06-01A90ED003D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1122" yWindow="1122" windowWidth="25471" windowHeight="12044" xr2:uid="{3B697070-C17E-47D6-A520-8CF218866625}"/>
   </bookViews>
@@ -127,10 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +467,7 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P1048576"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -480,7 +479,6 @@
     <col min="10" max="10" width="9.9140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.9140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
@@ -526,10 +524,10 @@
       <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -576,10 +574,10 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <v>24.0395</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <v>25.458500000000001</v>
       </c>
     </row>
@@ -626,10 +624,10 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>22.073599999999999</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <v>24.546800000000001</v>
       </c>
     </row>
@@ -676,10 +674,10 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4">
         <v>20.929300000000001</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4">
         <v>23.745100000000001</v>
       </c>
     </row>
@@ -726,10 +724,10 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>21.567799999999998</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>22.752700000000001</v>
       </c>
     </row>
@@ -776,10 +774,10 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6">
         <v>22.229800000000001</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6">
         <v>23.642499999999998</v>
       </c>
     </row>
@@ -826,10 +824,10 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7">
         <v>20.8459</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7">
         <v>23.066700000000001</v>
       </c>
     </row>
@@ -876,10 +874,10 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8">
         <v>21.194400000000002</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8">
         <v>22.1069</v>
       </c>
     </row>
@@ -926,10 +924,10 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9">
         <v>20.728200000000001</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9">
         <v>21.3508</v>
       </c>
     </row>
@@ -976,10 +974,10 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10">
         <v>20.36</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10">
         <v>20.841999999999999</v>
       </c>
     </row>
@@ -1026,10 +1024,10 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11">
         <v>21.0227</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11">
         <v>21.311599999999999</v>
       </c>
     </row>
@@ -1076,10 +1074,10 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12">
         <v>20.067699999999999</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12">
         <v>20.6995</v>
       </c>
     </row>
@@ -1126,10 +1124,10 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13">
         <v>19.4663</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13">
         <v>20.151399999999999</v>
       </c>
     </row>
@@ -1176,10 +1174,10 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14">
         <v>20.558</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14">
         <v>21.0839</v>
       </c>
     </row>
@@ -1226,10 +1224,10 @@
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15">
         <v>20.545500000000001</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15">
         <v>21.1066</v>
       </c>
     </row>
@@ -1276,10 +1274,10 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16">
         <v>25.359500000000001</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16">
         <v>23.8018</v>
       </c>
     </row>
@@ -1326,10 +1324,10 @@
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17">
         <v>24.173400000000001</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17">
         <v>23.569299999999998</v>
       </c>
     </row>
@@ -1376,10 +1374,10 @@
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18">
         <v>30.028099999999998</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18">
         <v>24.047000000000001</v>
       </c>
     </row>
@@ -1426,10 +1424,10 @@
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19">
         <v>22.595199999999998</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19">
         <v>24.0778</v>
       </c>
     </row>
@@ -1476,10 +1474,10 @@
       <c r="N20">
         <v>0.5</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20">
         <v>21.667000000000002</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20">
         <v>20.638400000000001</v>
       </c>
     </row>
@@ -1526,10 +1524,10 @@
       <c r="N21">
         <v>7.8</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21">
         <v>22.148900000000001</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21">
         <v>19.135100000000001</v>
       </c>
     </row>
@@ -1576,10 +1574,10 @@
       <c r="N22">
         <v>0.7</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22">
         <v>23.112300000000001</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22">
         <v>19.934799999999999</v>
       </c>
     </row>
@@ -1626,10 +1624,10 @@
       <c r="N23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23">
         <v>22.700700000000001</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23">
         <v>20.043500000000002</v>
       </c>
     </row>
@@ -1676,10 +1674,10 @@
       <c r="N24">
         <v>0.2</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24">
         <v>25.087299999999999</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24">
         <v>21.790199999999999</v>
       </c>
     </row>
@@ -1726,10 +1724,10 @@
       <c r="N25">
         <v>0</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25">
         <v>31.108899999999998</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25">
         <v>22.236499999999999</v>
       </c>
     </row>
@@ -1776,10 +1774,10 @@
       <c r="N26">
         <v>0</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26">
         <v>33.445799999999998</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26">
         <v>26.796199999999999</v>
       </c>
     </row>
@@ -1826,10 +1824,10 @@
       <c r="N27">
         <v>0</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27">
         <v>33.405999999999999</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27">
         <v>26.346</v>
       </c>
     </row>
@@ -1876,10 +1874,10 @@
       <c r="N28">
         <v>0</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28">
         <v>36.300600000000003</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28">
         <v>27.4068</v>
       </c>
     </row>
@@ -1926,10 +1924,10 @@
       <c r="N29">
         <v>0</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29">
         <v>39.323300000000003</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29">
         <v>30.0594</v>
       </c>
     </row>
@@ -1976,10 +1974,10 @@
       <c r="N30">
         <v>0</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30">
         <v>38.6218</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30">
         <v>31.436399999999999</v>
       </c>
     </row>
@@ -2026,10 +2024,10 @@
       <c r="N31">
         <v>0</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31">
         <v>38.623600000000003</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31">
         <v>31.227900000000002</v>
       </c>
     </row>
@@ -2076,10 +2074,10 @@
       <c r="N32">
         <v>0</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32">
         <v>38.356499999999997</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32">
         <v>32.583100000000002</v>
       </c>
     </row>
@@ -2126,10 +2124,10 @@
       <c r="N33">
         <v>0</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33">
         <v>37.743299999999998</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33">
         <v>33.955399999999997</v>
       </c>
     </row>
@@ -2176,10 +2174,10 @@
       <c r="N34">
         <v>0</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34">
         <v>38.8643</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34">
         <v>34.838500000000003</v>
       </c>
     </row>
@@ -2226,10 +2224,10 @@
       <c r="N35">
         <v>0</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35">
         <v>38.246899999999997</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35">
         <v>35.377699999999997</v>
       </c>
     </row>
@@ -2276,10 +2274,10 @@
       <c r="N36">
         <v>0</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36">
         <v>36.808700000000002</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36">
         <v>35.904299999999999</v>
       </c>
     </row>
@@ -2326,10 +2324,10 @@
       <c r="N37">
         <v>0</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37">
         <v>34.015099999999997</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37">
         <v>35.539299999999997</v>
       </c>
     </row>
@@ -2376,10 +2374,10 @@
       <c r="N38">
         <v>0</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38">
         <v>32.347099999999998</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38">
         <v>34.459499999999998</v>
       </c>
     </row>
@@ -2426,10 +2424,10 @@
       <c r="N39">
         <v>0</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39">
         <v>29.004000000000001</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39">
         <v>32.548900000000003</v>
       </c>
     </row>
@@ -2476,10 +2474,10 @@
       <c r="N40">
         <v>0</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40">
         <v>26.336300000000001</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40">
         <v>30.316500000000001</v>
       </c>
     </row>
@@ -2526,10 +2524,10 @@
       <c r="N41">
         <v>0</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41">
         <v>24.7316</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41">
         <v>28.435300000000002</v>
       </c>
     </row>
@@ -2576,10 +2574,10 @@
       <c r="N42">
         <v>0</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42">
         <v>24.458300000000001</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42">
         <v>27.7194</v>
       </c>
     </row>
@@ -2626,10 +2624,10 @@
       <c r="N43">
         <v>0</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43">
         <v>23.851900000000001</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43">
         <v>27.916699999999999</v>
       </c>
     </row>
@@ -2676,10 +2674,10 @@
       <c r="N44">
         <v>0</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44">
         <v>23.299099999999999</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P44">
         <v>26.663399999999999</v>
       </c>
     </row>
@@ -2726,10 +2724,10 @@
       <c r="N45">
         <v>0</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45">
         <v>23.2258</v>
       </c>
-      <c r="P45" s="2">
+      <c r="P45">
         <v>25.889500000000002</v>
       </c>
     </row>
@@ -2776,10 +2774,10 @@
       <c r="N46">
         <v>0</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46">
         <v>22.747800000000002</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46">
         <v>25.13</v>
       </c>
     </row>
@@ -2826,10 +2824,10 @@
       <c r="N47">
         <v>0</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47">
         <v>21.3019</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P47">
         <v>24.534400000000002</v>
       </c>
     </row>
@@ -2876,10 +2874,10 @@
       <c r="N48">
         <v>0</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48">
         <v>21.0929</v>
       </c>
-      <c r="P48" s="2">
+      <c r="P48">
         <v>23.916799999999999</v>
       </c>
     </row>
@@ -2926,10 +2924,10 @@
       <c r="N49">
         <v>0</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49">
         <v>19.989000000000001</v>
       </c>
-      <c r="P49" s="2">
+      <c r="P49">
         <v>23.4529</v>
       </c>
     </row>

--- a/Inputs/EC_Part_Data.xlsx
+++ b/Inputs/EC_Part_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ET_Learning_Notes\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F35D34-FC74-49D7-9F06-01A90ED003D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D68C1BA-889A-4C24-88E1-0907F26D94D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1122" yWindow="1122" windowWidth="25471" windowHeight="12044" xr2:uid="{3B697070-C17E-47D6-A520-8CF218866625}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>TIMESTAMP_START</t>
   </si>
@@ -85,6 +85,9 @@
   <si>
     <t>TD</t>
   </si>
+  <si>
+    <t>G</t>
+  </si>
 </sst>
 </file>
 
@@ -127,9 +130,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A083C1-7B15-4000-9006-FAEE52FEBC45}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -479,9 +483,10 @@
     <col min="10" max="10" width="9.9140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.9140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,8 +535,11 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>202508260000</v>
       </c>
@@ -580,8 +588,11 @@
       <c r="P2">
         <v>25.458500000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q2" s="2">
+        <v>139.59989999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>202508260030</v>
       </c>
@@ -630,8 +641,11 @@
       <c r="P3">
         <v>24.546800000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q3" s="2">
+        <v>145.52359999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>202508260100</v>
       </c>
@@ -680,8 +694,11 @@
       <c r="P4">
         <v>23.745100000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q4" s="2">
+        <v>143.12029999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>202508260130</v>
       </c>
@@ -730,8 +747,11 @@
       <c r="P5">
         <v>22.752700000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q5" s="2">
+        <v>148.08099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>202508260200</v>
       </c>
@@ -780,8 +800,11 @@
       <c r="P6">
         <v>23.642499999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q6" s="2">
+        <v>137.90559999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>202508260230</v>
       </c>
@@ -830,8 +853,11 @@
       <c r="P7">
         <v>23.066700000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q7" s="2">
+        <v>148.54130000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>202508260300</v>
       </c>
@@ -880,8 +906,11 @@
       <c r="P8">
         <v>22.1069</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q8" s="2">
+        <v>149.5214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>202508260330</v>
       </c>
@@ -930,8 +959,11 @@
       <c r="P9">
         <v>21.3508</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q9" s="2">
+        <v>151.85159999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>202508260400</v>
       </c>
@@ -980,8 +1012,11 @@
       <c r="P10">
         <v>20.841999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q10" s="2">
+        <v>149.65309999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>202508260430</v>
       </c>
@@ -1030,8 +1065,11 @@
       <c r="P11">
         <v>21.311599999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q11" s="2">
+        <v>150.63030000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>202508260500</v>
       </c>
@@ -1080,8 +1118,11 @@
       <c r="P12">
         <v>20.6995</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q12" s="2">
+        <v>153.5001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>202508260530</v>
       </c>
@@ -1130,8 +1171,11 @@
       <c r="P13">
         <v>20.151399999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q13" s="2">
+        <v>161.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>202508260600</v>
       </c>
@@ -1180,8 +1224,11 @@
       <c r="P14">
         <v>21.0839</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q14" s="2">
+        <v>142.2782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>202508260630</v>
       </c>
@@ -1230,8 +1277,11 @@
       <c r="P15">
         <v>21.1066</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q15" s="2">
+        <v>153.43809999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>202508260700</v>
       </c>
@@ -1280,8 +1330,11 @@
       <c r="P16">
         <v>23.8018</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q16" s="2">
+        <v>146.13550000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>202508260730</v>
       </c>
@@ -1330,8 +1383,11 @@
       <c r="P17">
         <v>23.569299999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q17" s="2">
+        <v>175.39830000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>202508260800</v>
       </c>
@@ -1380,8 +1436,11 @@
       <c r="P18">
         <v>24.047000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q18" s="2">
+        <v>172.1224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>202508260830</v>
       </c>
@@ -1430,8 +1489,11 @@
       <c r="P19">
         <v>24.0778</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q19" s="2">
+        <v>160.17099999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>202508260900</v>
       </c>
@@ -1480,8 +1542,11 @@
       <c r="P20">
         <v>20.638400000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q20" s="2">
+        <v>213.15389999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>202508260930</v>
       </c>
@@ -1530,8 +1595,11 @@
       <c r="P21">
         <v>19.135100000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q21" s="2">
+        <v>43.724939999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>202508261000</v>
       </c>
@@ -1580,8 +1648,11 @@
       <c r="P22">
         <v>19.934799999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q22" s="2">
+        <v>295.29180000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>202508261030</v>
       </c>
@@ -1630,8 +1701,11 @@
       <c r="P23">
         <v>20.043500000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q23" s="2">
+        <v>125.9361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>202508261100</v>
       </c>
@@ -1680,8 +1754,11 @@
       <c r="P24">
         <v>21.790199999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q24" s="2">
+        <v>143.04040000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>202508261130</v>
       </c>
@@ -1730,8 +1807,11 @@
       <c r="P25">
         <v>22.236499999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q25" s="2">
+        <v>161.84569999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>202508261200</v>
       </c>
@@ -1780,8 +1860,11 @@
       <c r="P26">
         <v>26.796199999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q26" s="2">
+        <v>204.86349999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>202508261230</v>
       </c>
@@ -1830,8 +1913,11 @@
       <c r="P27">
         <v>26.346</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q27" s="2">
+        <v>235.02539999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>202508261300</v>
       </c>
@@ -1880,8 +1966,11 @@
       <c r="P28">
         <v>27.4068</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q28" s="2">
+        <v>197.5872</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>202508261330</v>
       </c>
@@ -1930,8 +2019,11 @@
       <c r="P29">
         <v>30.0594</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q29" s="2">
+        <v>207.48570000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>202508261400</v>
       </c>
@@ -1980,8 +2072,11 @@
       <c r="P30">
         <v>31.436399999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q30" s="2">
+        <v>172.93389999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>202508261430</v>
       </c>
@@ -2030,8 +2125,11 @@
       <c r="P31">
         <v>31.227900000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q31" s="2">
+        <v>164.2595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>202508261500</v>
       </c>
@@ -2080,8 +2178,11 @@
       <c r="P32">
         <v>32.583100000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q32" s="2">
+        <v>133.40260000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>202508261530</v>
       </c>
@@ -2130,8 +2231,11 @@
       <c r="P33">
         <v>33.955399999999997</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q33" s="2">
+        <v>134.31370000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>202508261600</v>
       </c>
@@ -2180,8 +2284,11 @@
       <c r="P34">
         <v>34.838500000000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q34" s="2">
+        <v>133.35169999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>202508261630</v>
       </c>
@@ -2230,8 +2337,11 @@
       <c r="P35">
         <v>35.377699999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q35" s="2">
+        <v>128.143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>202508261700</v>
       </c>
@@ -2280,8 +2390,11 @@
       <c r="P36">
         <v>35.904299999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q36" s="2">
+        <v>149.15610000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>202508261730</v>
       </c>
@@ -2330,8 +2443,11 @@
       <c r="P37">
         <v>35.539299999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q37" s="2">
+        <v>127.67019999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>202508261800</v>
       </c>
@@ -2380,8 +2496,11 @@
       <c r="P38">
         <v>34.459499999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q38" s="2">
+        <v>125.80249999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>202508261830</v>
       </c>
@@ -2430,8 +2549,11 @@
       <c r="P39">
         <v>32.548900000000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q39" s="2">
+        <v>115.4776</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>202508261900</v>
       </c>
@@ -2480,8 +2602,11 @@
       <c r="P40">
         <v>30.316500000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q40" s="2">
+        <v>117.057</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>202508261930</v>
       </c>
@@ -2530,8 +2655,11 @@
       <c r="P41">
         <v>28.435300000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q41" s="2">
+        <v>110.4919</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>202508262000</v>
       </c>
@@ -2580,8 +2708,11 @@
       <c r="P42">
         <v>27.7194</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q42" s="2">
+        <v>113.58159999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>202508262030</v>
       </c>
@@ -2630,8 +2761,11 @@
       <c r="P43">
         <v>27.916699999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q43" s="2">
+        <v>98.791989999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>202508262100</v>
       </c>
@@ -2680,8 +2814,11 @@
       <c r="P44">
         <v>26.663399999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q44" s="2">
+        <v>116.3597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>202508262130</v>
       </c>
@@ -2730,8 +2867,11 @@
       <c r="P45">
         <v>25.889500000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q45" s="2">
+        <v>108.66370000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>202508262200</v>
       </c>
@@ -2780,8 +2920,11 @@
       <c r="P46">
         <v>25.13</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q46" s="2">
+        <v>116.9238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>202508262230</v>
       </c>
@@ -2830,8 +2973,11 @@
       <c r="P47">
         <v>24.534400000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q47" s="2">
+        <v>114.5057</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>202508262300</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P48">
         <v>23.916799999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q48" s="2">
+        <v>119.8189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>202508262330</v>
       </c>
@@ -2929,6 +3078,9 @@
       </c>
       <c r="P49">
         <v>23.4529</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>115.4033</v>
       </c>
     </row>
   </sheetData>
